--- a/templates/carbomica_progbook_stanza-bopape_chc_SA.xlsx
+++ b/templates/carbomica_progbook_stanza-bopape_chc_SA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="64">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -36,10 +36,13 @@
     <t>Aga Khan Medical Centre, Kenya</t>
   </si>
   <si>
-    <t>Laudium Community Health Centre, South Africa</t>
+    <t>Chitse Rural Health Care Clinic, Zimbabwe</t>
   </si>
   <si>
-    <t>Stanza Bopape Community Health Centre, South Africa</t>
+    <t>Dotito Rural Health Care Clinic, Zimbabwe</t>
+  </si>
+  <si>
+    <t>Laudium Community Health Centre, South Africa</t>
   </si>
   <si>
     <t>Mamelodi Regional Hospital, South Africa</t>
@@ -48,13 +51,25 @@
     <t>Mt Darwin District Hospital, Zimbabwe</t>
   </si>
   <si>
-    <t>Dotito Rural Health Care Clinic, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Chitse Rural Health Care Clinic, Zimbabwe</t>
+    <t>Stanza Bopape Community Health Centre, South Africa</t>
   </si>
   <si>
     <t>Number of facilities in group</t>
+  </si>
+  <si>
+    <t>borehole_water</t>
+  </si>
+  <si>
+    <t>Borehole water</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>electric_cars</t>
+  </si>
+  <si>
+    <t>Electric cars</t>
   </si>
   <si>
     <t>energy_led</t>
@@ -63,7 +78,22 @@
     <t>Energy saving LED</t>
   </si>
   <si>
-    <t>N</t>
+    <t>local_procure</t>
+  </si>
+  <si>
+    <t>Local procurements</t>
+  </si>
+  <si>
+    <t>low_emit_gas</t>
+  </si>
+  <si>
+    <t>Low emitting anesthetic gases</t>
+  </si>
+  <si>
+    <t>low_emit_inhale</t>
+  </si>
+  <si>
+    <t>Low emitting inhalers</t>
   </si>
   <si>
     <t>low_emit_mat</t>
@@ -72,40 +102,10 @@
     <t>Low emitting materials</t>
   </si>
   <si>
-    <t>electric_cars</t>
-  </si>
-  <si>
-    <t>Electric cars</t>
-  </si>
-  <si>
-    <t>low_emit_gas</t>
-  </si>
-  <si>
-    <t>Low emitting anesthetic gases</t>
-  </si>
-  <si>
-    <t>borehole_water</t>
-  </si>
-  <si>
-    <t>Borehole water</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
     <t>Recycling</t>
-  </si>
-  <si>
-    <t>low_emit_inhale</t>
-  </si>
-  <si>
-    <t>Low emitting inhalers</t>
-  </si>
-  <si>
-    <t>local_procure</t>
-  </si>
-  <si>
-    <t>Local procurements</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -150,7 +150,7 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Energy saving LED - coverage</t>
+    <t>SC1 Building energy - multiplier</t>
   </si>
   <si>
     <t>Baseline value</t>
@@ -165,25 +165,49 @@
     <t>Additive</t>
   </si>
   <si>
-    <t>Low emitting materials - coverage</t>
+    <t>SC1 Travel - multiplier</t>
   </si>
   <si>
-    <t>Electric cars - coverage</t>
+    <t>SC1 Refrigerants - multiplier</t>
   </si>
   <si>
-    <t>Low emitting anesthetic gases - coverage</t>
+    <t>SC1  Waste - multiplier</t>
   </si>
   <si>
-    <t>Borehole water - coverage</t>
+    <t>SC1 Anaesthetic gases - multiplier</t>
   </si>
   <si>
-    <t>Recycling - coverage</t>
+    <t>SC2 Purchased and consumed grid electricity - multiplier</t>
   </si>
   <si>
-    <t>Low emitting inhalers - coverage</t>
+    <t>SC2 Heat networks - multiplier</t>
   </si>
   <si>
-    <t>Local procurements - coverage</t>
+    <t>SC3 Building energy (building not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Refrigerants (building not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Travel (vehicles not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Employee business travel-road, rail, air - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Water - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Waste - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Contractor logistics - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Inhalers - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Supply chain - multiplier</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1593,7 @@
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>30</v>
@@ -1661,7 +1685,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
@@ -1753,7 +1777,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
@@ -1845,7 +1869,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
@@ -1937,7 +1961,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
@@ -2029,7 +2053,7 @@
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
@@ -2121,7 +2145,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
@@ -2213,7 +2237,7 @@
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>30</v>
@@ -2655,25 +2679,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2694,35 +2718,35 @@
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L1" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N1" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2768,7 +2792,7 @@
     <row r="4" spans="1:14">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -2788,7 +2812,7 @@
     <row r="5" spans="1:14">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -2808,7 +2832,7 @@
     <row r="6" spans="1:14">
       <c r="A6" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -2828,7 +2852,7 @@
     <row r="7" spans="1:14">
       <c r="A7" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2848,7 +2872,7 @@
     <row r="8" spans="1:14">
       <c r="A8" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2868,7 +2892,7 @@
     <row r="9" spans="1:14">
       <c r="A9" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
@@ -2903,35 +2927,35 @@
       </c>
       <c r="G11" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2977,7 +3001,7 @@
     <row r="14" spans="1:14">
       <c r="A14" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -2997,7 +3021,7 @@
     <row r="15" spans="1:14">
       <c r="A15" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -3017,7 +3041,7 @@
     <row r="16" spans="1:14">
       <c r="A16" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3037,7 +3061,7 @@
     <row r="17" spans="1:14">
       <c r="A17" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -3057,7 +3081,7 @@
     <row r="18" spans="1:14">
       <c r="A18" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
@@ -3077,7 +3101,7 @@
     <row r="19" spans="1:14">
       <c r="A19" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -3112,35 +3136,35 @@
       </c>
       <c r="G21" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J21" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L21" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M21" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N21" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -3186,7 +3210,7 @@
     <row r="24" spans="1:14">
       <c r="A24" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -3206,7 +3230,7 @@
     <row r="25" spans="1:14">
       <c r="A25" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
@@ -3226,7 +3250,7 @@
     <row r="26" spans="1:14">
       <c r="A26" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
@@ -3246,7 +3270,7 @@
     <row r="27" spans="1:14">
       <c r="A27" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -3266,7 +3290,7 @@
     <row r="28" spans="1:14">
       <c r="A28" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -3286,7 +3310,7 @@
     <row r="29" spans="1:14">
       <c r="A29" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -3321,35 +3345,35 @@
       </c>
       <c r="G31" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H31" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M31" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3395,7 +3419,7 @@
     <row r="34" spans="1:14">
       <c r="A34" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
@@ -3415,7 +3439,7 @@
     <row r="35" spans="1:14">
       <c r="A35" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -3435,7 +3459,7 @@
     <row r="36" spans="1:14">
       <c r="A36" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -3455,7 +3479,7 @@
     <row r="37" spans="1:14">
       <c r="A37" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
@@ -3475,7 +3499,7 @@
     <row r="38" spans="1:14">
       <c r="A38" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
@@ -3495,7 +3519,7 @@
     <row r="39" spans="1:14">
       <c r="A39" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -3530,35 +3554,35 @@
       </c>
       <c r="G41" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H41" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L41" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M41" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N41" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3604,7 +3628,7 @@
     <row r="44" spans="1:14">
       <c r="A44" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
@@ -3624,7 +3648,7 @@
     <row r="45" spans="1:14">
       <c r="A45" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
@@ -3644,7 +3668,7 @@
     <row r="46" spans="1:14">
       <c r="A46" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
@@ -3664,7 +3688,7 @@
     <row r="47" spans="1:14">
       <c r="A47" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
@@ -3684,7 +3708,7 @@
     <row r="48" spans="1:14">
       <c r="A48" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
@@ -3704,7 +3728,7 @@
     <row r="49" spans="1:14">
       <c r="A49" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
@@ -3739,35 +3763,35 @@
       </c>
       <c r="G51" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H51" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I51" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J51" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K51" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L51" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M51" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N51" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3813,7 +3837,7 @@
     <row r="54" spans="1:14">
       <c r="A54" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
@@ -3833,7 +3857,7 @@
     <row r="55" spans="1:14">
       <c r="A55" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
@@ -3853,7 +3877,7 @@
     <row r="56" spans="1:14">
       <c r="A56" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
@@ -3873,7 +3897,7 @@
     <row r="57" spans="1:14">
       <c r="A57" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
@@ -3893,7 +3917,7 @@
     <row r="58" spans="1:14">
       <c r="A58" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
@@ -3913,7 +3937,7 @@
     <row r="59" spans="1:14">
       <c r="A59" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
@@ -3948,35 +3972,35 @@
       </c>
       <c r="G61" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H61" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I61" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J61" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K61" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L61" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M61" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N61" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4022,7 +4046,7 @@
     <row r="64" spans="1:14">
       <c r="A64" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
@@ -4042,7 +4066,7 @@
     <row r="65" spans="1:14">
       <c r="A65" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
@@ -4062,7 +4086,7 @@
     <row r="66" spans="1:14">
       <c r="A66" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
@@ -4082,7 +4106,7 @@
     <row r="67" spans="1:14">
       <c r="A67" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
@@ -4102,7 +4126,7 @@
     <row r="68" spans="1:14">
       <c r="A68" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
@@ -4122,7 +4146,7 @@
     <row r="69" spans="1:14">
       <c r="A69" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
@@ -4157,35 +4181,35 @@
       </c>
       <c r="G71" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H71" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I71" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J71" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K71" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L71" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M71" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N71" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4231,7 +4255,7 @@
     <row r="74" spans="1:14">
       <c r="A74" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
@@ -4251,7 +4275,7 @@
     <row r="75" spans="1:14">
       <c r="A75" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
@@ -4271,7 +4295,7 @@
     <row r="76" spans="1:14">
       <c r="A76" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
@@ -4291,7 +4315,7 @@
     <row r="77" spans="1:14">
       <c r="A77" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
@@ -4311,7 +4335,7 @@
     <row r="78" spans="1:14">
       <c r="A78" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
@@ -4331,7 +4355,7 @@
     <row r="79" spans="1:14">
       <c r="A79" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
@@ -4348,7 +4372,1807 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H81" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M81" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I91" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L91" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H101" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I101" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K101" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M101" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N101" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H111" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I111" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J111" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K111" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L111" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M111" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N111" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H121" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I121" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K121" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L121" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M121" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N121" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H131" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I131" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J131" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K131" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L131" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M131" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N131" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H141" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I141" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J141" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K141" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L141" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M141" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N141" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H151" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I151" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J151" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K151" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L151" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M151" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N151" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="expression" dxfId="1" priority="1457">
+      <formula>COUNTIF(F102:N102,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1458">
+      <formula>AND(COUNTIF(F102:N102,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="expression" dxfId="1" priority="1475">
+      <formula>COUNTIF(F103:N103,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1476">
+      <formula>AND(COUNTIF(F103:N103,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="1" priority="1493">
+      <formula>COUNTIF(F104:N104,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1494">
+      <formula>AND(COUNTIF(F104:N104,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="1" priority="1511">
+      <formula>COUNTIF(F105:N105,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1512">
+      <formula>AND(COUNTIF(F105:N105,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="expression" dxfId="1" priority="1529">
+      <formula>COUNTIF(F106:N106,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1530">
+      <formula>AND(COUNTIF(F106:N106,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="1" priority="1547">
+      <formula>COUNTIF(F107:N107,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1548">
+      <formula>AND(COUNTIF(F107:N107,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="expression" dxfId="1" priority="1565">
+      <formula>COUNTIF(F108:N108,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1566">
+      <formula>AND(COUNTIF(F108:N108,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" dxfId="1" priority="1583">
+      <formula>COUNTIF(F109:N109,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1584">
+      <formula>AND(COUNTIF(F109:N109,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="expression" dxfId="1" priority="1601">
+      <formula>COUNTIF(F112:N112,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1602">
+      <formula>AND(COUNTIF(F112:N112,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="expression" dxfId="1" priority="1619">
+      <formula>COUNTIF(F113:N113,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1620">
+      <formula>AND(COUNTIF(F113:N113,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="expression" dxfId="1" priority="1637">
+      <formula>COUNTIF(F114:N114,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1638">
+      <formula>AND(COUNTIF(F114:N114,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="expression" dxfId="1" priority="1655">
+      <formula>COUNTIF(F115:N115,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1656">
+      <formula>AND(COUNTIF(F115:N115,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="expression" dxfId="1" priority="1673">
+      <formula>COUNTIF(F116:N116,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1674">
+      <formula>AND(COUNTIF(F116:N116,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="expression" dxfId="1" priority="1691">
+      <formula>COUNTIF(F117:N117,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1692">
+      <formula>AND(COUNTIF(F117:N117,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="expression" dxfId="1" priority="1709">
+      <formula>COUNTIF(F118:N118,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1710">
+      <formula>AND(COUNTIF(F118:N118,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="expression" dxfId="1" priority="1727">
+      <formula>COUNTIF(F119:N119,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1728">
+      <formula>AND(COUNTIF(F119:N119,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="1" priority="161">
       <formula>COUNTIF(F12:N12,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4357,6 +6181,70 @@
       <formula>AND(COUNTIF(F12:N12,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D12)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="expression" dxfId="1" priority="1745">
+      <formula>COUNTIF(F122:N122,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1746">
+      <formula>AND(COUNTIF(F122:N122,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
+    <cfRule type="expression" dxfId="1" priority="1763">
+      <formula>COUNTIF(F123:N123,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1764">
+      <formula>AND(COUNTIF(F123:N123,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124">
+    <cfRule type="expression" dxfId="1" priority="1781">
+      <formula>COUNTIF(F124:N124,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1782">
+      <formula>AND(COUNTIF(F124:N124,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="expression" dxfId="1" priority="1799">
+      <formula>COUNTIF(F125:N125,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1800">
+      <formula>AND(COUNTIF(F125:N125,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="expression" dxfId="1" priority="1817">
+      <formula>COUNTIF(F126:N126,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1818">
+      <formula>AND(COUNTIF(F126:N126,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="expression" dxfId="1" priority="1835">
+      <formula>COUNTIF(F127:N127,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1836">
+      <formula>AND(COUNTIF(F127:N127,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="expression" dxfId="1" priority="1853">
+      <formula>COUNTIF(F128:N128,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1854">
+      <formula>AND(COUNTIF(F128:N128,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="expression" dxfId="1" priority="1871">
+      <formula>COUNTIF(F129:N129,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1872">
+      <formula>AND(COUNTIF(F129:N129,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="1" priority="179">
       <formula>COUNTIF(F13:N13,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4365,6 +6253,70 @@
       <formula>AND(COUNTIF(F13:N13,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="expression" dxfId="1" priority="1889">
+      <formula>COUNTIF(F132:N132,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1890">
+      <formula>AND(COUNTIF(F132:N132,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="expression" dxfId="1" priority="1907">
+      <formula>COUNTIF(F133:N133,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1908">
+      <formula>AND(COUNTIF(F133:N133,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="expression" dxfId="1" priority="1925">
+      <formula>COUNTIF(F134:N134,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1926">
+      <formula>AND(COUNTIF(F134:N134,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="expression" dxfId="1" priority="1943">
+      <formula>COUNTIF(F135:N135,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1944">
+      <formula>AND(COUNTIF(F135:N135,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D136">
+    <cfRule type="expression" dxfId="1" priority="1961">
+      <formula>COUNTIF(F136:N136,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1962">
+      <formula>AND(COUNTIF(F136:N136,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="expression" dxfId="1" priority="1979">
+      <formula>COUNTIF(F137:N137,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1980">
+      <formula>AND(COUNTIF(F137:N137,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="expression" dxfId="1" priority="1997">
+      <formula>COUNTIF(F138:N138,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1998">
+      <formula>AND(COUNTIF(F138:N138,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139">
+    <cfRule type="expression" dxfId="1" priority="2015">
+      <formula>COUNTIF(F139:N139,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2016">
+      <formula>AND(COUNTIF(F139:N139,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="1" priority="197">
       <formula>COUNTIF(F14:N14,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4373,6 +6325,70 @@
       <formula>AND(COUNTIF(F14:N14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="expression" dxfId="1" priority="2033">
+      <formula>COUNTIF(F142:N142,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2034">
+      <formula>AND(COUNTIF(F142:N142,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D143">
+    <cfRule type="expression" dxfId="1" priority="2051">
+      <formula>COUNTIF(F143:N143,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2052">
+      <formula>AND(COUNTIF(F143:N143,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="expression" dxfId="1" priority="2069">
+      <formula>COUNTIF(F144:N144,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2070">
+      <formula>AND(COUNTIF(F144:N144,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="expression" dxfId="1" priority="2087">
+      <formula>COUNTIF(F145:N145,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2088">
+      <formula>AND(COUNTIF(F145:N145,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="expression" dxfId="1" priority="2105">
+      <formula>COUNTIF(F146:N146,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2106">
+      <formula>AND(COUNTIF(F146:N146,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="expression" dxfId="1" priority="2123">
+      <formula>COUNTIF(F147:N147,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2124">
+      <formula>AND(COUNTIF(F147:N147,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="expression" dxfId="1" priority="2141">
+      <formula>COUNTIF(F148:N148,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2142">
+      <formula>AND(COUNTIF(F148:N148,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="expression" dxfId="1" priority="2159">
+      <formula>COUNTIF(F149:N149,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2160">
+      <formula>AND(COUNTIF(F149:N149,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="1" priority="215">
       <formula>COUNTIF(F15:N15,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4381,6 +6397,70 @@
       <formula>AND(COUNTIF(F15:N15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="1" priority="2177">
+      <formula>COUNTIF(F152:N152,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2178">
+      <formula>AND(COUNTIF(F152:N152,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="expression" dxfId="1" priority="2195">
+      <formula>COUNTIF(F153:N153,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2196">
+      <formula>AND(COUNTIF(F153:N153,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="expression" dxfId="1" priority="2213">
+      <formula>COUNTIF(F154:N154,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2214">
+      <formula>AND(COUNTIF(F154:N154,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
+    <cfRule type="expression" dxfId="1" priority="2231">
+      <formula>COUNTIF(F155:N155,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2232">
+      <formula>AND(COUNTIF(F155:N155,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="expression" dxfId="1" priority="2249">
+      <formula>COUNTIF(F156:N156,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2250">
+      <formula>AND(COUNTIF(F156:N156,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="expression" dxfId="1" priority="2267">
+      <formula>COUNTIF(F157:N157,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2268">
+      <formula>AND(COUNTIF(F157:N157,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="expression" dxfId="1" priority="2285">
+      <formula>COUNTIF(F158:N158,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2286">
+      <formula>AND(COUNTIF(F158:N158,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="expression" dxfId="1" priority="2303">
+      <formula>COUNTIF(F159:N159,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2304">
+      <formula>AND(COUNTIF(F159:N159,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="1" priority="233">
       <formula>COUNTIF(F16:N16,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4853,6 +6933,70 @@
       <formula>AND(COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="expression" dxfId="1" priority="1169">
+      <formula>COUNTIF(F82:N82,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1170">
+      <formula>AND(COUNTIF(F82:N82,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="expression" dxfId="1" priority="1187">
+      <formula>COUNTIF(F83:N83,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1188">
+      <formula>AND(COUNTIF(F83:N83,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="1" priority="1205">
+      <formula>COUNTIF(F84:N84,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1206">
+      <formula>AND(COUNTIF(F84:N84,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="1" priority="1223">
+      <formula>COUNTIF(F85:N85,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1224">
+      <formula>AND(COUNTIF(F85:N85,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="expression" dxfId="1" priority="1241">
+      <formula>COUNTIF(F86:N86,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1242">
+      <formula>AND(COUNTIF(F86:N86,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="expression" dxfId="1" priority="1259">
+      <formula>COUNTIF(F87:N87,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1260">
+      <formula>AND(COUNTIF(F87:N87,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="expression" dxfId="1" priority="1277">
+      <formula>COUNTIF(F88:N88,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1278">
+      <formula>AND(COUNTIF(F88:N88,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="expression" dxfId="1" priority="1295">
+      <formula>COUNTIF(F89:N89,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1296">
+      <formula>AND(COUNTIF(F89:N89,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="1" priority="143">
       <formula>COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4861,6 +7005,198 @@
       <formula>AND(COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="expression" dxfId="1" priority="1313">
+      <formula>COUNTIF(F92:N92,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1314">
+      <formula>AND(COUNTIF(F92:N92,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="expression" dxfId="1" priority="1331">
+      <formula>COUNTIF(F93:N93,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1332">
+      <formula>AND(COUNTIF(F93:N93,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="expression" dxfId="1" priority="1349">
+      <formula>COUNTIF(F94:N94,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1350">
+      <formula>AND(COUNTIF(F94:N94,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="1" priority="1367">
+      <formula>COUNTIF(F95:N95,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1368">
+      <formula>AND(COUNTIF(F95:N95,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="1" priority="1385">
+      <formula>COUNTIF(F96:N96,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1386">
+      <formula>AND(COUNTIF(F96:N96,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="1" priority="1403">
+      <formula>COUNTIF(F97:N97,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1404">
+      <formula>AND(COUNTIF(F97:N97,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="expression" dxfId="1" priority="1421">
+      <formula>COUNTIF(F98:N98,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1422">
+      <formula>AND(COUNTIF(F98:N98,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="expression" dxfId="1" priority="1439">
+      <formula>COUNTIF(F99:N99,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1440">
+      <formula>AND(COUNTIF(F99:N99,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G102">
+    <cfRule type="expression" dxfId="2" priority="1441">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1442">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="2" priority="1459">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1460">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G104">
+    <cfRule type="expression" dxfId="2" priority="1477">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1478">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105">
+    <cfRule type="expression" dxfId="2" priority="1495">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1496">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="2" priority="1513">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1514">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="expression" dxfId="2" priority="1531">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1532">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="expression" dxfId="2" priority="1549">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1550">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" dxfId="2" priority="1567">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1568">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="expression" dxfId="2" priority="1585">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1586">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="expression" dxfId="2" priority="1603">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1604">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="expression" dxfId="2" priority="1621">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1622">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="expression" dxfId="2" priority="1639">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1640">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="expression" dxfId="2" priority="1657">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1658">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="expression" dxfId="2" priority="1675">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1676">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="expression" dxfId="2" priority="1693">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1694">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="expression" dxfId="2" priority="1711">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1712">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G12)))</formula>
@@ -4869,6 +7205,70 @@
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="expression" dxfId="2" priority="1729">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1730">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="expression" dxfId="2" priority="1747">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1748">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="expression" dxfId="2" priority="1765">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1766">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="expression" dxfId="2" priority="1783">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1784">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="expression" dxfId="2" priority="1801">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1802">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="expression" dxfId="2" priority="1819">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1820">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="expression" dxfId="2" priority="1837">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1838">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="expression" dxfId="2" priority="1855">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1856">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G13)))</formula>
@@ -4877,6 +7277,70 @@
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G132">
+    <cfRule type="expression" dxfId="2" priority="1873">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1874">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="expression" dxfId="2" priority="1891">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1892">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="expression" dxfId="2" priority="1909">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1910">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="expression" dxfId="2" priority="1927">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1928">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="expression" dxfId="2" priority="1945">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1946">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137">
+    <cfRule type="expression" dxfId="2" priority="1963">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1964">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138">
+    <cfRule type="expression" dxfId="2" priority="1981">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1982">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139">
+    <cfRule type="expression" dxfId="2" priority="1999">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2000">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
@@ -4885,6 +7349,70 @@
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G142">
+    <cfRule type="expression" dxfId="2" priority="2017">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2018">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="expression" dxfId="2" priority="2035">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2036">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="expression" dxfId="2" priority="2053">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2054">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145">
+    <cfRule type="expression" dxfId="2" priority="2071">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2072">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146">
+    <cfRule type="expression" dxfId="2" priority="2089">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2090">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147">
+    <cfRule type="expression" dxfId="2" priority="2107">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2108">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148">
+    <cfRule type="expression" dxfId="2" priority="2125">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2126">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G149">
+    <cfRule type="expression" dxfId="2" priority="2143">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2144">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="expression" dxfId="2" priority="199">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
@@ -4893,6 +7421,70 @@
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="expression" dxfId="2" priority="2161">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2162">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="expression" dxfId="2" priority="2179">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2180">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G154">
+    <cfRule type="expression" dxfId="2" priority="2197">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2198">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155">
+    <cfRule type="expression" dxfId="2" priority="2215">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2216">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="expression" dxfId="2" priority="2233">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2234">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G157">
+    <cfRule type="expression" dxfId="2" priority="2251">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2252">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
+    <cfRule type="expression" dxfId="2" priority="2269">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2270">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="expression" dxfId="2" priority="2287">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2288">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="2" priority="217">
       <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</formula>
@@ -5365,6 +7957,70 @@
       <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="2" priority="1153">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1154">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="expression" dxfId="2" priority="1171">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1172">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="2" priority="1189">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1190">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="expression" dxfId="2" priority="1207">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1208">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
+    <cfRule type="expression" dxfId="2" priority="1225">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1226">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="expression" dxfId="2" priority="1243">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1244">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" dxfId="2" priority="1261">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1262">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" dxfId="2" priority="1279">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1280">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G9">
     <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
@@ -5373,6 +8029,198 @@
       <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="expression" dxfId="2" priority="1297">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1298">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="expression" dxfId="2" priority="1315">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1316">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" dxfId="2" priority="1333">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1334">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
+    <cfRule type="expression" dxfId="2" priority="1351">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1352">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G96">
+    <cfRule type="expression" dxfId="2" priority="1369">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1370">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="expression" dxfId="2" priority="1387">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1388">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="expression" dxfId="2" priority="1405">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1406">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="expression" dxfId="2" priority="1423">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1424">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="expression" dxfId="2" priority="1443">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1444">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="expression" dxfId="2" priority="1461">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1462">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" dxfId="2" priority="1479">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1480">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="expression" dxfId="2" priority="1497">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1498">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" dxfId="2" priority="1515">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1516">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="expression" dxfId="2" priority="1533">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1534">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="2" priority="1551">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1552">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" dxfId="2" priority="1569">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1570">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="expression" dxfId="2" priority="1587">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1588">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="expression" dxfId="2" priority="1605">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1606">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="expression" dxfId="2" priority="1623">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1624">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="expression" dxfId="2" priority="1641">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1642">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="expression" dxfId="2" priority="1659">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1660">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="expression" dxfId="2" priority="1677">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1678">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="expression" dxfId="2" priority="1695">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1696">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119">
+    <cfRule type="expression" dxfId="2" priority="1713">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1714">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H12">
     <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H12)))</formula>
@@ -5381,6 +8229,70 @@
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="expression" dxfId="2" priority="1731">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1732">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="expression" dxfId="2" priority="1749">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1750">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="expression" dxfId="2" priority="1767">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1768">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="expression" dxfId="2" priority="1785">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1786">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="expression" dxfId="2" priority="1803">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1804">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="2" priority="1821">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1822">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="2" priority="1839">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1840">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="expression" dxfId="2" priority="1857">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1858">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H13)))</formula>
@@ -5389,6 +8301,70 @@
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="expression" dxfId="2" priority="1875">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1876">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133">
+    <cfRule type="expression" dxfId="2" priority="1893">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1894">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="expression" dxfId="2" priority="1911">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1912">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="expression" dxfId="2" priority="1929">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1930">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="expression" dxfId="2" priority="1947">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1948">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H137">
+    <cfRule type="expression" dxfId="2" priority="1965">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1966">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="expression" dxfId="2" priority="1983">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1984">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="expression" dxfId="2" priority="2001">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2002">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
     <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
@@ -5397,6 +8373,70 @@
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H142">
+    <cfRule type="expression" dxfId="2" priority="2019">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2020">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="expression" dxfId="2" priority="2037">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2038">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H144">
+    <cfRule type="expression" dxfId="2" priority="2055">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2056">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H145">
+    <cfRule type="expression" dxfId="2" priority="2073">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2074">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H146">
+    <cfRule type="expression" dxfId="2" priority="2091">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2092">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="expression" dxfId="2" priority="2109">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2110">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H148">
+    <cfRule type="expression" dxfId="2" priority="2127">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2128">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149">
+    <cfRule type="expression" dxfId="2" priority="2145">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2146">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H15">
     <cfRule type="expression" dxfId="2" priority="201">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
@@ -5405,6 +8445,70 @@
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H152">
+    <cfRule type="expression" dxfId="2" priority="2163">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2164">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="expression" dxfId="2" priority="2181">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2182">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="expression" dxfId="2" priority="2199">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2200">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H155">
+    <cfRule type="expression" dxfId="2" priority="2217">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2218">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H156">
+    <cfRule type="expression" dxfId="2" priority="2235">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2236">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157">
+    <cfRule type="expression" dxfId="2" priority="2253">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2254">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H158">
+    <cfRule type="expression" dxfId="2" priority="2271">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2272">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="expression" dxfId="2" priority="2289">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2290">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H16">
     <cfRule type="expression" dxfId="2" priority="219">
       <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</formula>
@@ -5877,6 +8981,70 @@
       <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="2" priority="1155">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1156">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="2" priority="1173">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1174">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="2" priority="1191">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1192">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="2" priority="1209">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1210">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="expression" dxfId="2" priority="1227">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1228">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="expression" dxfId="2" priority="1245">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1246">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" dxfId="2" priority="1263">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1264">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" dxfId="2" priority="1281">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1282">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H9">
     <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
@@ -5885,6 +9053,198 @@
       <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" dxfId="2" priority="1299">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1300">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93">
+    <cfRule type="expression" dxfId="2" priority="1317">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1318">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="2" priority="1335">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1336">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="expression" dxfId="2" priority="1353">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1354">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" dxfId="2" priority="1371">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1372">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="expression" dxfId="2" priority="1389">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1390">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" dxfId="2" priority="1407">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1408">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" dxfId="2" priority="1425">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1426">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="2" priority="1445">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1446">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="expression" dxfId="2" priority="1463">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1464">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="expression" dxfId="2" priority="1481">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1482">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105">
+    <cfRule type="expression" dxfId="2" priority="1499">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1500">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I106">
+    <cfRule type="expression" dxfId="2" priority="1517">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1518">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107">
+    <cfRule type="expression" dxfId="2" priority="1535">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1536">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108">
+    <cfRule type="expression" dxfId="2" priority="1553">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1554">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" dxfId="2" priority="1571">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1572">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="expression" dxfId="2" priority="1589">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1590">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="expression" dxfId="2" priority="1607">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1608">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="expression" dxfId="2" priority="1625">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1626">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="expression" dxfId="2" priority="1643">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1644">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="expression" dxfId="2" priority="1661">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1662">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="expression" dxfId="2" priority="1679">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1680">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="expression" dxfId="2" priority="1697">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1698">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119">
+    <cfRule type="expression" dxfId="2" priority="1715">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1716">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I12)))</formula>
@@ -5893,6 +9253,70 @@
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="expression" dxfId="2" priority="1733">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1734">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="expression" dxfId="2" priority="1751">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1752">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124">
+    <cfRule type="expression" dxfId="2" priority="1769">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1770">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125">
+    <cfRule type="expression" dxfId="2" priority="1787">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1788">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126">
+    <cfRule type="expression" dxfId="2" priority="1805">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1806">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="expression" dxfId="2" priority="1823">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1824">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="expression" dxfId="2" priority="1841">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1842">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="expression" dxfId="2" priority="1859">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1860">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="2" priority="167">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I13)))</formula>
@@ -5901,6 +9325,70 @@
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I132">
+    <cfRule type="expression" dxfId="2" priority="1877">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1878">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133">
+    <cfRule type="expression" dxfId="2" priority="1895">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1896">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134">
+    <cfRule type="expression" dxfId="2" priority="1913">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1914">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="expression" dxfId="2" priority="1931">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1932">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I136">
+    <cfRule type="expression" dxfId="2" priority="1949">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1950">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137">
+    <cfRule type="expression" dxfId="2" priority="1967">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1968">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138">
+    <cfRule type="expression" dxfId="2" priority="1985">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1986">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I139">
+    <cfRule type="expression" dxfId="2" priority="2003">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2004">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
@@ -5909,6 +9397,70 @@
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I142">
+    <cfRule type="expression" dxfId="2" priority="2021">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2022">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I143">
+    <cfRule type="expression" dxfId="2" priority="2039">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2040">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144">
+    <cfRule type="expression" dxfId="2" priority="2057">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2058">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="expression" dxfId="2" priority="2075">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2076">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146">
+    <cfRule type="expression" dxfId="2" priority="2093">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2094">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147">
+    <cfRule type="expression" dxfId="2" priority="2111">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2112">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148">
+    <cfRule type="expression" dxfId="2" priority="2129">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2130">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="expression" dxfId="2" priority="2147">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2148">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I15">
     <cfRule type="expression" dxfId="2" priority="203">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
@@ -5917,6 +9469,70 @@
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I152">
+    <cfRule type="expression" dxfId="2" priority="2165">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2166">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I153">
+    <cfRule type="expression" dxfId="2" priority="2183">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2184">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I154">
+    <cfRule type="expression" dxfId="2" priority="2201">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2202">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="expression" dxfId="2" priority="2219">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2220">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="expression" dxfId="2" priority="2237">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2238">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I157">
+    <cfRule type="expression" dxfId="2" priority="2255">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2256">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I158">
+    <cfRule type="expression" dxfId="2" priority="2273">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2274">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159">
+    <cfRule type="expression" dxfId="2" priority="2291">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2292">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="2" priority="221">
       <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</formula>
@@ -6389,6 +10005,70 @@
       <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="2" priority="1157">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1158">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="2" priority="1175">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1176">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="2" priority="1193">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1194">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="2" priority="1211">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1212">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" dxfId="2" priority="1229">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1230">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" dxfId="2" priority="1247">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1248">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="expression" dxfId="2" priority="1265">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1266">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="expression" dxfId="2" priority="1283">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1284">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I9">
     <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
@@ -6397,6 +10077,198 @@
       <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I92">
+    <cfRule type="expression" dxfId="2" priority="1301">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1302">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93">
+    <cfRule type="expression" dxfId="2" priority="1319">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1320">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="expression" dxfId="2" priority="1337">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1338">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95">
+    <cfRule type="expression" dxfId="2" priority="1355">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1356">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="expression" dxfId="2" priority="1373">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1374">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97">
+    <cfRule type="expression" dxfId="2" priority="1391">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1392">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="2" priority="1409">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1410">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="expression" dxfId="2" priority="1427">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1428">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="expression" dxfId="2" priority="1447">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1448">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="expression" dxfId="2" priority="1465">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1466">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="expression" dxfId="2" priority="1483">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1484">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="expression" dxfId="2" priority="1501">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1502">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="expression" dxfId="2" priority="1519">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1520">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="expression" dxfId="2" priority="1537">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1538">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108">
+    <cfRule type="expression" dxfId="2" priority="1555">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1556">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" dxfId="2" priority="1573">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1574">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112">
+    <cfRule type="expression" dxfId="2" priority="1591">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1592">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113">
+    <cfRule type="expression" dxfId="2" priority="1609">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1610">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="expression" dxfId="2" priority="1627">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1628">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="expression" dxfId="2" priority="1645">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1646">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J116">
+    <cfRule type="expression" dxfId="2" priority="1663">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1664">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J117">
+    <cfRule type="expression" dxfId="2" priority="1681">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1682">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J118">
+    <cfRule type="expression" dxfId="2" priority="1699">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1700">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J119">
+    <cfRule type="expression" dxfId="2" priority="1717">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1718">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J12">
     <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J12)))</formula>
@@ -6405,6 +10277,70 @@
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J122">
+    <cfRule type="expression" dxfId="2" priority="1735">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1736">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123">
+    <cfRule type="expression" dxfId="2" priority="1753">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1754">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124">
+    <cfRule type="expression" dxfId="2" priority="1771">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1772">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="expression" dxfId="2" priority="1789">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1790">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J126">
+    <cfRule type="expression" dxfId="2" priority="1807">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1808">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127">
+    <cfRule type="expression" dxfId="2" priority="1825">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1826">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="expression" dxfId="2" priority="1843">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1844">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
+    <cfRule type="expression" dxfId="2" priority="1861">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1862">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
     <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J13)))</formula>
@@ -6413,6 +10349,70 @@
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J132">
+    <cfRule type="expression" dxfId="2" priority="1879">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1880">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J133">
+    <cfRule type="expression" dxfId="2" priority="1897">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1898">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J134">
+    <cfRule type="expression" dxfId="2" priority="1915">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1916">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135">
+    <cfRule type="expression" dxfId="2" priority="1933">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1934">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule type="expression" dxfId="2" priority="1951">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1952">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J137">
+    <cfRule type="expression" dxfId="2" priority="1969">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1970">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J138">
+    <cfRule type="expression" dxfId="2" priority="1987">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1988">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J139">
+    <cfRule type="expression" dxfId="2" priority="2005">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2006">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
@@ -6421,6 +10421,70 @@
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J142">
+    <cfRule type="expression" dxfId="2" priority="2023">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2024">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J143">
+    <cfRule type="expression" dxfId="2" priority="2041">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2042">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J144">
+    <cfRule type="expression" dxfId="2" priority="2059">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2060">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="expression" dxfId="2" priority="2077">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2078">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146">
+    <cfRule type="expression" dxfId="2" priority="2095">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2096">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J147">
+    <cfRule type="expression" dxfId="2" priority="2113">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2114">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J148">
+    <cfRule type="expression" dxfId="2" priority="2131">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2132">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="expression" dxfId="2" priority="2149">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2150">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J15">
     <cfRule type="expression" dxfId="2" priority="205">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
@@ -6429,6 +10493,70 @@
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J152">
+    <cfRule type="expression" dxfId="2" priority="2167">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2168">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J153">
+    <cfRule type="expression" dxfId="2" priority="2185">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2186">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J154">
+    <cfRule type="expression" dxfId="2" priority="2203">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2204">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J155">
+    <cfRule type="expression" dxfId="2" priority="2221">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2222">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J156">
+    <cfRule type="expression" dxfId="2" priority="2239">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2240">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J157">
+    <cfRule type="expression" dxfId="2" priority="2257">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2258">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J158">
+    <cfRule type="expression" dxfId="2" priority="2275">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2276">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J159">
+    <cfRule type="expression" dxfId="2" priority="2293">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2294">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="2" priority="223">
       <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</formula>
@@ -6901,6 +11029,70 @@
       <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="expression" dxfId="2" priority="1159">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1160">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="2" priority="1177">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1178">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="expression" dxfId="2" priority="1195">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1196">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="expression" dxfId="2" priority="1213">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1214">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86">
+    <cfRule type="expression" dxfId="2" priority="1231">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1232">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="expression" dxfId="2" priority="1249">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1250">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="expression" dxfId="2" priority="1267">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1268">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="expression" dxfId="2" priority="1285">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1286">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J9">
     <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
@@ -6909,6 +11101,198 @@
       <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="expression" dxfId="2" priority="1303">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1304">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="expression" dxfId="2" priority="1321">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1322">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="expression" dxfId="2" priority="1339">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1340">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="expression" dxfId="2" priority="1357">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1358">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="expression" dxfId="2" priority="1375">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1376">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="expression" dxfId="2" priority="1393">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1394">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98">
+    <cfRule type="expression" dxfId="2" priority="1411">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1412">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="expression" dxfId="2" priority="1429">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1430">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102">
+    <cfRule type="expression" dxfId="2" priority="1449">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1450">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103">
+    <cfRule type="expression" dxfId="2" priority="1467">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1468">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104">
+    <cfRule type="expression" dxfId="2" priority="1485">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1486">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105">
+    <cfRule type="expression" dxfId="2" priority="1503">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1504">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106">
+    <cfRule type="expression" dxfId="2" priority="1521">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1522">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107">
+    <cfRule type="expression" dxfId="2" priority="1539">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1540">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108">
+    <cfRule type="expression" dxfId="2" priority="1557">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1558">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" dxfId="2" priority="1575">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1576">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112">
+    <cfRule type="expression" dxfId="2" priority="1593">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1594">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113">
+    <cfRule type="expression" dxfId="2" priority="1611">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1612">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114">
+    <cfRule type="expression" dxfId="2" priority="1629">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1630">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115">
+    <cfRule type="expression" dxfId="2" priority="1647">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1648">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116">
+    <cfRule type="expression" dxfId="2" priority="1665">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1666">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117">
+    <cfRule type="expression" dxfId="2" priority="1683">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1684">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118">
+    <cfRule type="expression" dxfId="2" priority="1701">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1702">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119">
+    <cfRule type="expression" dxfId="2" priority="1719">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1720">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K12">
     <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K12)))</formula>
@@ -6917,6 +11301,70 @@
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K122">
+    <cfRule type="expression" dxfId="2" priority="1737">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1738">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="expression" dxfId="2" priority="1755">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1756">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K124">
+    <cfRule type="expression" dxfId="2" priority="1773">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1774">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K125">
+    <cfRule type="expression" dxfId="2" priority="1791">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1792">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126">
+    <cfRule type="expression" dxfId="2" priority="1809">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1810">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127">
+    <cfRule type="expression" dxfId="2" priority="1827">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1828">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128">
+    <cfRule type="expression" dxfId="2" priority="1845">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1846">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K129">
+    <cfRule type="expression" dxfId="2" priority="1863">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1864">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K13">
     <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K13)))</formula>
@@ -6925,6 +11373,70 @@
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K132">
+    <cfRule type="expression" dxfId="2" priority="1881">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1882">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K133">
+    <cfRule type="expression" dxfId="2" priority="1899">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1900">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K134">
+    <cfRule type="expression" dxfId="2" priority="1917">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1918">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135">
+    <cfRule type="expression" dxfId="2" priority="1935">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1936">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K136">
+    <cfRule type="expression" dxfId="2" priority="1953">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1954">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K137">
+    <cfRule type="expression" dxfId="2" priority="1971">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1972">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K138">
+    <cfRule type="expression" dxfId="2" priority="1989">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1990">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139">
+    <cfRule type="expression" dxfId="2" priority="2007">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2008">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K14">
     <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
@@ -6933,6 +11445,70 @@
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K142">
+    <cfRule type="expression" dxfId="2" priority="2025">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2026">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K143">
+    <cfRule type="expression" dxfId="2" priority="2043">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2044">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144">
+    <cfRule type="expression" dxfId="2" priority="2061">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2062">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145">
+    <cfRule type="expression" dxfId="2" priority="2079">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2080">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K146">
+    <cfRule type="expression" dxfId="2" priority="2097">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2098">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K147">
+    <cfRule type="expression" dxfId="2" priority="2115">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2116">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K148">
+    <cfRule type="expression" dxfId="2" priority="2133">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2134">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="expression" dxfId="2" priority="2151">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2152">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K15">
     <cfRule type="expression" dxfId="2" priority="207">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
@@ -6941,6 +11517,70 @@
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K152">
+    <cfRule type="expression" dxfId="2" priority="2169">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2170">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K153">
+    <cfRule type="expression" dxfId="2" priority="2187">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2188">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K154">
+    <cfRule type="expression" dxfId="2" priority="2205">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2206">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K155">
+    <cfRule type="expression" dxfId="2" priority="2223">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2224">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K156">
+    <cfRule type="expression" dxfId="2" priority="2241">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2242">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K157">
+    <cfRule type="expression" dxfId="2" priority="2259">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2260">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K158">
+    <cfRule type="expression" dxfId="2" priority="2277">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2278">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K159">
+    <cfRule type="expression" dxfId="2" priority="2295">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2296">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="2" priority="225">
       <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</formula>
@@ -7413,6 +12053,70 @@
       <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K82">
+    <cfRule type="expression" dxfId="2" priority="1161">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1162">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="expression" dxfId="2" priority="1179">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1180">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84">
+    <cfRule type="expression" dxfId="2" priority="1197">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1198">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85">
+    <cfRule type="expression" dxfId="2" priority="1215">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1216">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K86">
+    <cfRule type="expression" dxfId="2" priority="1233">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1234">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87">
+    <cfRule type="expression" dxfId="2" priority="1251">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1252">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88">
+    <cfRule type="expression" dxfId="2" priority="1269">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1270">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89">
+    <cfRule type="expression" dxfId="2" priority="1287">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1288">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
@@ -7421,6 +12125,198 @@
       <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K92">
+    <cfRule type="expression" dxfId="2" priority="1305">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1306">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K93">
+    <cfRule type="expression" dxfId="2" priority="1323">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1324">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94">
+    <cfRule type="expression" dxfId="2" priority="1341">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1342">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K95">
+    <cfRule type="expression" dxfId="2" priority="1359">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1360">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96">
+    <cfRule type="expression" dxfId="2" priority="1377">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1378">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97">
+    <cfRule type="expression" dxfId="2" priority="1395">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1396">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98">
+    <cfRule type="expression" dxfId="2" priority="1413">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1414">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99">
+    <cfRule type="expression" dxfId="2" priority="1431">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1432">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L102">
+    <cfRule type="expression" dxfId="2" priority="1451">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1452">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L103">
+    <cfRule type="expression" dxfId="2" priority="1469">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1470">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104">
+    <cfRule type="expression" dxfId="2" priority="1487">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1488">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L105">
+    <cfRule type="expression" dxfId="2" priority="1505">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1506">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L106">
+    <cfRule type="expression" dxfId="2" priority="1523">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1524">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L107">
+    <cfRule type="expression" dxfId="2" priority="1541">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1542">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L108">
+    <cfRule type="expression" dxfId="2" priority="1559">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1560">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" dxfId="2" priority="1577">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1578">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L112">
+    <cfRule type="expression" dxfId="2" priority="1595">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1596">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L113">
+    <cfRule type="expression" dxfId="2" priority="1613">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1614">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="expression" dxfId="2" priority="1631">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1632">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L115">
+    <cfRule type="expression" dxfId="2" priority="1649">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1650">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L116">
+    <cfRule type="expression" dxfId="2" priority="1667">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1668">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L117">
+    <cfRule type="expression" dxfId="2" priority="1685">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1686">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L118">
+    <cfRule type="expression" dxfId="2" priority="1703">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1704">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L119">
+    <cfRule type="expression" dxfId="2" priority="1721">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1722">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L12">
     <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L12)))</formula>
@@ -7429,6 +12325,70 @@
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L122">
+    <cfRule type="expression" dxfId="2" priority="1739">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1740">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L123">
+    <cfRule type="expression" dxfId="2" priority="1757">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1758">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L124">
+    <cfRule type="expression" dxfId="2" priority="1775">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1776">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125">
+    <cfRule type="expression" dxfId="2" priority="1793">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1794">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L126">
+    <cfRule type="expression" dxfId="2" priority="1811">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1812">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L127">
+    <cfRule type="expression" dxfId="2" priority="1829">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1830">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L128">
+    <cfRule type="expression" dxfId="2" priority="1847">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1848">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L129">
+    <cfRule type="expression" dxfId="2" priority="1865">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1866">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L13">
     <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L13)))</formula>
@@ -7437,6 +12397,70 @@
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L132">
+    <cfRule type="expression" dxfId="2" priority="1883">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1884">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L133">
+    <cfRule type="expression" dxfId="2" priority="1901">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1902">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L134">
+    <cfRule type="expression" dxfId="2" priority="1919">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1920">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L135">
+    <cfRule type="expression" dxfId="2" priority="1937">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1938">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L136">
+    <cfRule type="expression" dxfId="2" priority="1955">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1956">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L137">
+    <cfRule type="expression" dxfId="2" priority="1973">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1974">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L138">
+    <cfRule type="expression" dxfId="2" priority="1991">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1992">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L139">
+    <cfRule type="expression" dxfId="2" priority="2009">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2010">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L14">
     <cfRule type="expression" dxfId="2" priority="191">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
@@ -7445,6 +12469,70 @@
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L142">
+    <cfRule type="expression" dxfId="2" priority="2027">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2028">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L143">
+    <cfRule type="expression" dxfId="2" priority="2045">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2046">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144">
+    <cfRule type="expression" dxfId="2" priority="2063">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2064">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145">
+    <cfRule type="expression" dxfId="2" priority="2081">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2082">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L146">
+    <cfRule type="expression" dxfId="2" priority="2099">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2100">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L147">
+    <cfRule type="expression" dxfId="2" priority="2117">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2118">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L148">
+    <cfRule type="expression" dxfId="2" priority="2135">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2136">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="expression" dxfId="2" priority="2153">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2154">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L15">
     <cfRule type="expression" dxfId="2" priority="209">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
@@ -7453,6 +12541,70 @@
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L152">
+    <cfRule type="expression" dxfId="2" priority="2171">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2172">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L153">
+    <cfRule type="expression" dxfId="2" priority="2189">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2190">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L154">
+    <cfRule type="expression" dxfId="2" priority="2207">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2208">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L155">
+    <cfRule type="expression" dxfId="2" priority="2225">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2226">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L156">
+    <cfRule type="expression" dxfId="2" priority="2243">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2244">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L157">
+    <cfRule type="expression" dxfId="2" priority="2261">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2262">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L158">
+    <cfRule type="expression" dxfId="2" priority="2279">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2280">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L159">
+    <cfRule type="expression" dxfId="2" priority="2297">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2298">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L16">
     <cfRule type="expression" dxfId="2" priority="227">
       <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L16)))</formula>
@@ -7925,6 +13077,70 @@
       <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="expression" dxfId="2" priority="1163">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1164">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="expression" dxfId="2" priority="1181">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1182">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
+    <cfRule type="expression" dxfId="2" priority="1199">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1200">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="expression" dxfId="2" priority="1217">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1218">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86">
+    <cfRule type="expression" dxfId="2" priority="1235">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1236">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87">
+    <cfRule type="expression" dxfId="2" priority="1253">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1254">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L88">
+    <cfRule type="expression" dxfId="2" priority="1271">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1272">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89">
+    <cfRule type="expression" dxfId="2" priority="1289">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1290">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L9)))</formula>
@@ -7933,6 +13149,198 @@
       <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L92">
+    <cfRule type="expression" dxfId="2" priority="1307">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1308">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L93">
+    <cfRule type="expression" dxfId="2" priority="1325">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1326">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L94">
+    <cfRule type="expression" dxfId="2" priority="1343">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1344">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L95">
+    <cfRule type="expression" dxfId="2" priority="1361">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1362">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L96">
+    <cfRule type="expression" dxfId="2" priority="1379">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1380">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L97">
+    <cfRule type="expression" dxfId="2" priority="1397">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1398">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L98">
+    <cfRule type="expression" dxfId="2" priority="1415">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1416">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99">
+    <cfRule type="expression" dxfId="2" priority="1433">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1434">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M102">
+    <cfRule type="expression" dxfId="2" priority="1453">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1454">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103">
+    <cfRule type="expression" dxfId="2" priority="1471">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1472">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M104">
+    <cfRule type="expression" dxfId="2" priority="1489">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1490">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M105">
+    <cfRule type="expression" dxfId="2" priority="1507">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1508">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106">
+    <cfRule type="expression" dxfId="2" priority="1525">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1526">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M107">
+    <cfRule type="expression" dxfId="2" priority="1543">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1544">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M108">
+    <cfRule type="expression" dxfId="2" priority="1561">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1562">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" dxfId="2" priority="1579">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1580">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M112">
+    <cfRule type="expression" dxfId="2" priority="1597">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1598">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M113">
+    <cfRule type="expression" dxfId="2" priority="1615">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1616">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M114">
+    <cfRule type="expression" dxfId="2" priority="1633">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1634">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115">
+    <cfRule type="expression" dxfId="2" priority="1651">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1652">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M116">
+    <cfRule type="expression" dxfId="2" priority="1669">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1670">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M117">
+    <cfRule type="expression" dxfId="2" priority="1687">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1688">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M118">
+    <cfRule type="expression" dxfId="2" priority="1705">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1706">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M119">
+    <cfRule type="expression" dxfId="2" priority="1723">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1724">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M12">
     <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M12)))</formula>
@@ -7941,6 +13349,70 @@
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M122">
+    <cfRule type="expression" dxfId="2" priority="1741">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1742">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M123">
+    <cfRule type="expression" dxfId="2" priority="1759">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1760">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M124">
+    <cfRule type="expression" dxfId="2" priority="1777">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1778">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M125">
+    <cfRule type="expression" dxfId="2" priority="1795">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1796">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M126">
+    <cfRule type="expression" dxfId="2" priority="1813">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1814">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127">
+    <cfRule type="expression" dxfId="2" priority="1831">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1832">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M128">
+    <cfRule type="expression" dxfId="2" priority="1849">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1850">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M129">
+    <cfRule type="expression" dxfId="2" priority="1867">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1868">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M13">
     <cfRule type="expression" dxfId="2" priority="175">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M13)))</formula>
@@ -7949,6 +13421,70 @@
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M132">
+    <cfRule type="expression" dxfId="2" priority="1885">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1886">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M133">
+    <cfRule type="expression" dxfId="2" priority="1903">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1904">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M134">
+    <cfRule type="expression" dxfId="2" priority="1921">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1922">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M135">
+    <cfRule type="expression" dxfId="2" priority="1939">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1940">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M136">
+    <cfRule type="expression" dxfId="2" priority="1957">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1958">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M137">
+    <cfRule type="expression" dxfId="2" priority="1975">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1976">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M138">
+    <cfRule type="expression" dxfId="2" priority="1993">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1994">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M139">
+    <cfRule type="expression" dxfId="2" priority="2011">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2012">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M14">
     <cfRule type="expression" dxfId="2" priority="193">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
@@ -7957,6 +13493,70 @@
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M142">
+    <cfRule type="expression" dxfId="2" priority="2029">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2030">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M143">
+    <cfRule type="expression" dxfId="2" priority="2047">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2048">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144">
+    <cfRule type="expression" dxfId="2" priority="2065">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2066">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145">
+    <cfRule type="expression" dxfId="2" priority="2083">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2084">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M146">
+    <cfRule type="expression" dxfId="2" priority="2101">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2102">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="expression" dxfId="2" priority="2119">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2120">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="expression" dxfId="2" priority="2137">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2138">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="expression" dxfId="2" priority="2155">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2156">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M15">
     <cfRule type="expression" dxfId="2" priority="211">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
@@ -7965,6 +13565,70 @@
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M152">
+    <cfRule type="expression" dxfId="2" priority="2173">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2174">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M153">
+    <cfRule type="expression" dxfId="2" priority="2191">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2192">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M154">
+    <cfRule type="expression" dxfId="2" priority="2209">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2210">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M155">
+    <cfRule type="expression" dxfId="2" priority="2227">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2228">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M156">
+    <cfRule type="expression" dxfId="2" priority="2245">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2246">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M157">
+    <cfRule type="expression" dxfId="2" priority="2263">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2264">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M158">
+    <cfRule type="expression" dxfId="2" priority="2281">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2282">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M159">
+    <cfRule type="expression" dxfId="2" priority="2299">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2300">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M16">
     <cfRule type="expression" dxfId="2" priority="229">
       <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M16)))</formula>
@@ -8437,6 +14101,70 @@
       <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M82">
+    <cfRule type="expression" dxfId="2" priority="1165">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1166">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
+    <cfRule type="expression" dxfId="2" priority="1183">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1184">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84">
+    <cfRule type="expression" dxfId="2" priority="1201">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1202">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="expression" dxfId="2" priority="1219">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1220">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86">
+    <cfRule type="expression" dxfId="2" priority="1237">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1238">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M87">
+    <cfRule type="expression" dxfId="2" priority="1255">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1256">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M88">
+    <cfRule type="expression" dxfId="2" priority="1273">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1274">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89">
+    <cfRule type="expression" dxfId="2" priority="1291">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1292">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M9">
     <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M9)))</formula>
@@ -8445,6 +14173,198 @@
       <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M92">
+    <cfRule type="expression" dxfId="2" priority="1309">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1310">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M93">
+    <cfRule type="expression" dxfId="2" priority="1327">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1328">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M94">
+    <cfRule type="expression" dxfId="2" priority="1345">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1346">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M95">
+    <cfRule type="expression" dxfId="2" priority="1363">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1364">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96">
+    <cfRule type="expression" dxfId="2" priority="1381">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1382">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M97">
+    <cfRule type="expression" dxfId="2" priority="1399">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1400">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M98">
+    <cfRule type="expression" dxfId="2" priority="1417">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1418">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99">
+    <cfRule type="expression" dxfId="2" priority="1435">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1436">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N102">
+    <cfRule type="expression" dxfId="2" priority="1455">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1456">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="expression" dxfId="2" priority="1473">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1474">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="expression" dxfId="2" priority="1491">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1492">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105">
+    <cfRule type="expression" dxfId="2" priority="1509">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1510">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106">
+    <cfRule type="expression" dxfId="2" priority="1527">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1528">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="expression" dxfId="2" priority="1545">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1546">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N108">
+    <cfRule type="expression" dxfId="2" priority="1563">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1564">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" dxfId="2" priority="1581">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1582">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N112">
+    <cfRule type="expression" dxfId="2" priority="1599">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1600">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113">
+    <cfRule type="expression" dxfId="2" priority="1617">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1618">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N114">
+    <cfRule type="expression" dxfId="2" priority="1635">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1636">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="expression" dxfId="2" priority="1653">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1654">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N116">
+    <cfRule type="expression" dxfId="2" priority="1671">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1672">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N117">
+    <cfRule type="expression" dxfId="2" priority="1689">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1690">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N118">
+    <cfRule type="expression" dxfId="2" priority="1707">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1708">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119">
+    <cfRule type="expression" dxfId="2" priority="1725">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1726">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N12">
     <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N12)))</formula>
@@ -8453,6 +14373,70 @@
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N122">
+    <cfRule type="expression" dxfId="2" priority="1743">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1744">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123">
+    <cfRule type="expression" dxfId="2" priority="1761">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1762">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N124">
+    <cfRule type="expression" dxfId="2" priority="1779">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1780">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="expression" dxfId="2" priority="1797">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1798">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126">
+    <cfRule type="expression" dxfId="2" priority="1815">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1816">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127">
+    <cfRule type="expression" dxfId="2" priority="1833">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1834">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N128">
+    <cfRule type="expression" dxfId="2" priority="1851">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1852">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N129">
+    <cfRule type="expression" dxfId="2" priority="1869">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1870">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N13">
     <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N13)))</formula>
@@ -8461,6 +14445,70 @@
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N132">
+    <cfRule type="expression" dxfId="2" priority="1887">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1888">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N133">
+    <cfRule type="expression" dxfId="2" priority="1905">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1906">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N134">
+    <cfRule type="expression" dxfId="2" priority="1923">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1924">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N135">
+    <cfRule type="expression" dxfId="2" priority="1941">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1942">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136">
+    <cfRule type="expression" dxfId="2" priority="1959">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1960">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N137">
+    <cfRule type="expression" dxfId="2" priority="1977">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1978">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N138">
+    <cfRule type="expression" dxfId="2" priority="1995">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1996">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N139">
+    <cfRule type="expression" dxfId="2" priority="2013">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2014">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N14">
     <cfRule type="expression" dxfId="2" priority="195">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N14)))</formula>
@@ -8469,6 +14517,70 @@
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N142">
+    <cfRule type="expression" dxfId="2" priority="2031">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2032">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N143">
+    <cfRule type="expression" dxfId="2" priority="2049">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2050">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N144">
+    <cfRule type="expression" dxfId="2" priority="2067">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2068">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N145">
+    <cfRule type="expression" dxfId="2" priority="2085">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2086">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N146">
+    <cfRule type="expression" dxfId="2" priority="2103">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2104">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147">
+    <cfRule type="expression" dxfId="2" priority="2121">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2122">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N148">
+    <cfRule type="expression" dxfId="2" priority="2139">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2140">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N149">
+    <cfRule type="expression" dxfId="2" priority="2157">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2158">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N15">
     <cfRule type="expression" dxfId="2" priority="213">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N15)))</formula>
@@ -8477,6 +14589,70 @@
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N152">
+    <cfRule type="expression" dxfId="2" priority="2175">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2176">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N153">
+    <cfRule type="expression" dxfId="2" priority="2193">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2194">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154">
+    <cfRule type="expression" dxfId="2" priority="2211">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2212">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155">
+    <cfRule type="expression" dxfId="2" priority="2229">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2230">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N156">
+    <cfRule type="expression" dxfId="2" priority="2247">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2248">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N157">
+    <cfRule type="expression" dxfId="2" priority="2265">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2266">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N158">
+    <cfRule type="expression" dxfId="2" priority="2283">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2284">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N159">
+    <cfRule type="expression" dxfId="2" priority="2301">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2302">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16">
     <cfRule type="expression" dxfId="2" priority="231">
       <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N16)))</formula>
@@ -8949,6 +15125,70 @@
       <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="expression" dxfId="2" priority="1167">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1168">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="expression" dxfId="2" priority="1185">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1186">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="expression" dxfId="2" priority="1203">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1204">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="expression" dxfId="2" priority="1221">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1222">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="expression" dxfId="2" priority="1239">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1240">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
+    <cfRule type="expression" dxfId="2" priority="1257">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1258">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
+    <cfRule type="expression" dxfId="2" priority="1275">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1276">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89">
+    <cfRule type="expression" dxfId="2" priority="1293">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1294">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N9)))</formula>
@@ -8957,7 +15197,71 @@
       <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="64">
+  <conditionalFormatting sqref="N92">
+    <cfRule type="expression" dxfId="2" priority="1311">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1312">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N93">
+    <cfRule type="expression" dxfId="2" priority="1329">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1330">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N94">
+    <cfRule type="expression" dxfId="2" priority="1347">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1348">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N95">
+    <cfRule type="expression" dxfId="2" priority="1365">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1366">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N96">
+    <cfRule type="expression" dxfId="2" priority="1383">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1384">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N97">
+    <cfRule type="expression" dxfId="2" priority="1401">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1402">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98">
+    <cfRule type="expression" dxfId="2" priority="1419">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1420">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N99">
+    <cfRule type="expression" dxfId="2" priority="1437">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1438">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="128">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
@@ -9148,6 +15452,198 @@
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C82">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C85">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C93">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C95">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C97">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C102">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C104">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C105">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C109">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C112">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C113">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C116">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C117">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C122">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C123">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C124">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C126">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C127">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C128">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C134">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C137">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C138">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C143">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C144">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C145">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C146">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C147">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C148">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C149">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C153">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C154">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C155">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C156">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C157">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C158">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C159">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
